--- a/utils/localisation_script/excel_to_json/te/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/te/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/te/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B6039B-7895-F940-BE66-711E5456ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F335C9A9-F5C2-7045-87F3-44C3C06CF0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="7" r:id="rId1"/>
@@ -229,28 +229,28 @@
     <t>లోపం</t>
   </si>
   <si>
-    <t>Start typing here</t>
-  </si>
-  <si>
     <t>ఇక్కడ టైప్ చేయడం ప్రారంభించండి</t>
   </si>
   <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
   </si>
   <si>
-    <t>కొనసాగడానికి ముందు దయచేసి &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; నిబంధనలు మరియు షరతులను &lt;/a&gt; అంగీకరించండి</t>
+    <t>కొనసాగడానికి ముందు దయచేసి &lt;a href="../terms-and-conditions.html" target="_blank"&gt; నిబంధనలు మరియు షరతులను &lt;/a&gt; అంగీకరించండి</t>
   </si>
   <si>
-    <t>Help your language pair achieve it’s goal of &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; translations. We know you can do more!</t>
+    <t>Help your language pair achieve it’s goal of &lt;span id="language-hour-goal"&gt;&lt;/span&gt; translations. We know you can do more!</t>
   </si>
   <si>
-    <t>&lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; అనువాదాల లక్ష్యాన్ని సాధించడంలో మీ భాషకు సహాయపడండి. మీరు మరింత చేయగలరని మాకు తెలుసు!</t>
+    <t>&lt;span id="language-hour-goal"&gt;&lt;/span&gt; అనువాదాల లక్ష్యాన్ని సాధించడంలో మీ భాషకు సహాయపడండి. మీరు మరింత చేయగలరని మాకు తెలుసు!</t>
   </si>
   <si>
-    <t>Help your language achieve it’s goal of &lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; images. We know you can do more!</t>
+    <t>Help your language achieve it’s goal of &lt;span id="language-hour-goal"&gt;&lt;/span&gt; images. We know you can do more!</t>
   </si>
   <si>
-    <t>&lt;span id=\"language-hour-goal\"&gt;&lt;/span&gt; చిత్రాల లక్ష్యాన్ని సాధించడంలో మీ భాషకు సహాయపడండి. మీరు మరింత చేయగలరని మాకు తెలుసు!</t>
+    <t>&lt;span id="language-hour-goal"&gt;&lt;/span&gt; చిత్రాల లక్ష్యాన్ని సాధించడంలో మీ భాషకు సహాయపడండి. మీరు మరింత చేయగలరని మాకు తెలుసు!</t>
+  </si>
+  <si>
+    <t>Start typing here...</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -789,11 +789,11 @@
     <row r="8" spans="1:26">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1781,11 +1781,11 @@
     <row r="39" spans="1:26">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1813,11 +1813,11 @@
     <row r="40" spans="1:26">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1845,11 +1845,11 @@
     <row r="41" spans="1:26">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
